--- a/Team-Data/2008-09/1-18-2008-09.xlsx
+++ b/Team-Data/2008-09/1-18-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -750,7 +817,7 @@
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -759,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -774,19 +841,19 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ2" t="n">
         <v>28</v>
       </c>
       <c r="AR2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS2" t="n">
         <v>21</v>
@@ -795,7 +862,7 @@
         <v>22</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>6</v>
@@ -804,7 +871,7 @@
         <v>20</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
         <v>11</v>
@@ -816,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -848,88 +915,88 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.78</v>
+        <v>0.786</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J3" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
         <v>17.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.378</v>
+        <v>0.374</v>
       </c>
       <c r="O3" t="n">
         <v>21.2</v>
       </c>
       <c r="P3" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.776</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V3" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
         <v>23.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>4</v>
@@ -938,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -956,7 +1023,7 @@
         <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
         <v>5</v>
@@ -965,16 +1032,16 @@
         <v>5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS3" t="n">
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -986,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>0.425</v>
+        <v>0.439</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.2</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="L5" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T5" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U5" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
@@ -1275,34 +1342,34 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
@@ -1320,13 +1387,13 @@
         <v>20</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
         <v>21</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>24</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1335,7 +1402,7 @@
         <v>12</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
         <v>14</v>
@@ -1347,10 +1414,10 @@
         <v>18</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
         <v>25</v>
@@ -1359,7 +1426,7 @@
         <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -1394,49 +1461,49 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="n">
         <v>31</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>0.838</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J6" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L6" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M6" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="O6" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R6" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
@@ -1445,34 +1512,34 @@
         <v>41.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="W6" t="n">
         <v>8.1</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
@@ -1496,22 +1563,22 @@
         <v>3</v>
       </c>
       <c r="AL6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM6" t="n">
         <v>7</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>6</v>
       </c>
       <c r="AN6" t="n">
         <v>16</v>
       </c>
       <c r="AO6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR6" t="n">
         <v>21</v>
@@ -1523,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="AU6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV6" t="n">
         <v>7</v>
@@ -1538,10 +1605,10 @@
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
         <v>6</v>
@@ -1687,7 +1754,7 @@
         <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1705,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1854,7 +1921,7 @@
         <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1866,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1884,7 +1951,7 @@
         <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
         <v>4</v>
@@ -1905,13 +1972,13 @@
         <v>24</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2088,7 @@
         <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>12</v>
@@ -2060,7 +2127,7 @@
         <v>27</v>
       </c>
       <c r="AR9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS9" t="n">
         <v>14</v>
@@ -2087,13 +2154,13 @@
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2251,13 +2318,13 @@
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
         <v>20</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>2.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -2415,7 +2482,7 @@
         <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2451,13 +2518,13 @@
         <v>3</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
         <v>21</v>
       </c>
       <c r="BC11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2588,7 +2655,7 @@
         <v>14</v>
       </c>
       <c r="AL12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM12" t="n">
         <v>8</v>
@@ -2597,10 +2664,10 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
@@ -2615,13 +2682,13 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV12" t="n">
         <v>23</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX12" t="n">
         <v>10</v>
@@ -2630,10 +2697,10 @@
         <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2849,7 @@
         <v>25</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.789</v>
+        <v>0.795</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
@@ -2868,7 +2935,7 @@
         <v>39.7</v>
       </c>
       <c r="J14" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K14" t="n">
         <v>0.474</v>
@@ -2877,31 +2944,31 @@
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.378</v>
+        <v>0.383</v>
       </c>
       <c r="O14" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T14" t="n">
-        <v>43.8</v>
+        <v>44</v>
       </c>
       <c r="U14" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V14" t="n">
         <v>13.7</v>
@@ -2910,28 +2977,28 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>107.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
@@ -2958,16 +3025,16 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
         <v>7</v>
@@ -2979,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>11</v>
@@ -2988,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -3214,58 +3281,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.55</v>
+        <v>0.538</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L16" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M16" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.36</v>
+        <v>0.355</v>
       </c>
       <c r="O16" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P16" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.739</v>
+        <v>0.738</v>
       </c>
       <c r="R16" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T16" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="U16" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V16" t="n">
         <v>12.8</v>
@@ -3274,28 +3341,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.7</v>
+        <v>96.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>15</v>
@@ -3304,28 +3371,28 @@
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM16" t="n">
         <v>11</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
@@ -3334,25 +3401,25 @@
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
         <v>23</v>
       </c>
       <c r="AU16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
         <v>10</v>
@@ -3367,7 +3434,7 @@
         <v>22</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" t="n">
         <v>20</v>
       </c>
       <c r="F17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" t="n">
-        <v>0.476</v>
+        <v>0.465</v>
       </c>
       <c r="H17" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I17" t="n">
         <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
@@ -3426,31 +3493,31 @@
         <v>15.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O17" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P17" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R17" t="n">
         <v>12.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>42.1</v>
+        <v>41.8</v>
       </c>
       <c r="U17" t="n">
         <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3462,16 +3529,16 @@
         <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,22 +3547,22 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>22</v>
@@ -3507,7 +3574,7 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>13</v>
@@ -3519,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>13</v>
@@ -3531,7 +3598,7 @@
         <v>17</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3540,16 +3607,16 @@
         <v>15</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>6</v>
       </c>
       <c r="BB17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-3.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG18" t="n">
         <v>24</v>
@@ -3692,10 +3759,10 @@
         <v>15</v>
       </c>
       <c r="AP18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
         <v>5</v>
@@ -3707,7 +3774,7 @@
         <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-3</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3865,10 +3932,10 @@
         <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4053,7 +4120,7 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
@@ -4065,7 +4132,7 @@
         <v>28</v>
       </c>
       <c r="AS20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4278,7 @@
         <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
         <v>24</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
@@ -4253,7 +4320,7 @@
         <v>10</v>
       </c>
       <c r="AU21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV21" t="n">
         <v>21</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ21" t="n">
         <v>5</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J22" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L22" t="n">
         <v>3.9</v>
@@ -4336,28 +4403,28 @@
         <v>10.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O22" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P22" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R22" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S22" t="n">
         <v>31</v>
       </c>
       <c r="T22" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U22" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V22" t="n">
         <v>16.5</v>
@@ -4366,25 +4433,25 @@
         <v>7</v>
       </c>
       <c r="X22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA22" t="n">
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>95.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>-7</v>
+        <v>-6.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>29</v>
@@ -4396,16 +4463,16 @@
         <v>30</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4420,10 +4487,10 @@
         <v>17</v>
       </c>
       <c r="AP22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR22" t="n">
         <v>11</v>
@@ -4435,7 +4502,7 @@
         <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4447,13 +4514,13 @@
         <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB22" t="n">
         <v>25</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
@@ -4584,7 +4651,7 @@
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
         <v>8</v>
@@ -4599,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP23" t="n">
         <v>7</v>
@@ -4614,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
@@ -4629,7 +4696,7 @@
         <v>4</v>
       </c>
       <c r="AY23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ23" t="n">
         <v>7</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
@@ -4769,7 +4836,7 @@
         <v>14</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
@@ -4823,7 +4890,7 @@
         <v>23</v>
       </c>
       <c r="BC24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -4852,88 +4919,88 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>0.605</v>
+        <v>0.595</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J25" t="n">
         <v>77.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.499</v>
+        <v>0.498</v>
       </c>
       <c r="L25" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M25" t="n">
         <v>17.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.385</v>
+        <v>0.388</v>
       </c>
       <c r="O25" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="P25" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.763</v>
+        <v>0.76</v>
       </c>
       <c r="R25" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="T25" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U25" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="V25" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W25" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
         <v>4.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.8</v>
+        <v>104.5</v>
       </c>
       <c r="AC25" t="n">
         <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -4954,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM25" t="n">
         <v>16</v>
@@ -4969,19 +5036,19 @@
         <v>6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR25" t="n">
         <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV25" t="n">
         <v>28</v>
@@ -4990,7 +5057,7 @@
         <v>29</v>
       </c>
       <c r="AX25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -5034,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" t="n">
-        <v>0.615</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J26" t="n">
-        <v>78.59999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M26" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.77</v>
+        <v>0.767</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="T26" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U26" t="n">
         <v>20.3</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.5</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>21</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>22</v>
-      </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5142,16 +5209,16 @@
         <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,7 +5230,7 @@
         <v>21</v>
       </c>
       <c r="AU26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5172,22 +5239,22 @@
         <v>23</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5309,13 +5376,13 @@
         <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
         <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
         <v>20</v>
@@ -5339,13 +5406,13 @@
         <v>22</v>
       </c>
       <c r="AS27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT27" t="n">
         <v>25</v>
       </c>
       <c r="AU27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -5515,13 +5582,13 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
         <v>24</v>
@@ -5551,7 +5618,7 @@
         <v>20</v>
       </c>
       <c r="BC28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" t="n">
-        <v>0.381</v>
+        <v>0.39</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J29" t="n">
         <v>78.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L29" t="n">
         <v>6.4</v>
@@ -5610,7 +5677,7 @@
         <v>16.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.382</v>
+        <v>0.38</v>
       </c>
       <c r="O29" t="n">
         <v>19.4</v>
@@ -5619,16 +5686,16 @@
         <v>23.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.827</v>
+        <v>0.826</v>
       </c>
       <c r="R29" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T29" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="U29" t="n">
         <v>21.7</v>
@@ -5637,49 +5704,49 @@
         <v>13.5</v>
       </c>
       <c r="W29" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X29" t="n">
         <v>5</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AA29" t="n">
         <v>20.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
       </c>
       <c r="AF29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI29" t="n">
         <v>23</v>
       </c>
-      <c r="AG29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>22</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>18</v>
@@ -5688,7 +5755,7 @@
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO29" t="n">
         <v>11</v>
@@ -5703,13 +5770,13 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
         <v>27</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
         <v>10</v>
@@ -5718,10 +5785,10 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>3.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
@@ -5873,19 +5940,19 @@
         <v>24</v>
       </c>
       <c r="AO30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP30" t="n">
         <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>16</v>
@@ -5900,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>14</v>
@@ -5915,7 +5982,7 @@
         <v>8</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6140,7 @@
         <v>26</v>
       </c>
       <c r="AU31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV31" t="n">
         <v>9</v>
@@ -6088,7 +6155,7 @@
         <v>17</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-18-2008-09</t>
+          <t>2009-01-18</t>
         </is>
       </c>
     </row>
